--- a/Original/CN/Data/god_talk.xlsx
+++ b/Original/CN/Data/god_talk.xlsx
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">哎呀，还知道要向我祈祷，算你有心了呢。
 你想知道风的名字吗？
 果然是垃圾呢。你有空祈祷还不如去干活。
-你是想被我千刀万剐呢？还是说，想要被穿・成・一・串呢？
+你是想被我千刀万剐呢？还是说，想要被穿·成·一·串呢？
 为我尽心尽力吧，小猫咪。</t>
   </si>
   <si>

--- a/Original/CN/Data/god_talk.xlsx
+++ b/Original/CN/Data/god_talk.xlsx
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">哎呀，还知道要向我祈祷，算你有心了呢。
 你想知道风的名字吗？
 果然是垃圾呢。你有空祈祷还不如去干活。
-你是想被我千刀万剐呢？还是说，想要被穿·成·一·串呢？
+你是想被我千刀万剐呢？还是说，想要被穿・成・一・串呢？
 为我尽心尽力吧，小猫咪。</t>
   </si>
   <si>
